--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb2-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb2-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.519606</v>
+        <v>29.41996</v>
       </c>
       <c r="H2">
-        <v>124.558818</v>
+        <v>88.25988000000001</v>
       </c>
       <c r="I2">
-        <v>0.7305114279806179</v>
+        <v>0.6207199949605289</v>
       </c>
       <c r="J2">
-        <v>0.7630546295388221</v>
+        <v>0.66829493802317</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.727270999999999</v>
+        <v>4.886733666666667</v>
       </c>
       <c r="N2">
-        <v>23.181813</v>
+        <v>14.660201</v>
       </c>
       <c r="O2">
-        <v>0.4492515923977304</v>
+        <v>0.4081653954827624</v>
       </c>
       <c r="P2">
-        <v>0.4784711627054499</v>
+        <v>0.4171266852711343</v>
       </c>
       <c r="Q2">
-        <v>320.8332473752259</v>
+        <v>143.7675090039867</v>
       </c>
       <c r="R2">
-        <v>2887.499226377034</v>
+        <v>1293.90758103588</v>
       </c>
       <c r="S2">
-        <v>0.3281834222850326</v>
+        <v>0.2533564222271226</v>
       </c>
       <c r="T2">
-        <v>0.3650996358032166</v>
+        <v>0.278763652281083</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>41.519606</v>
+        <v>29.41996</v>
       </c>
       <c r="H3">
-        <v>124.558818</v>
+        <v>88.25988000000001</v>
       </c>
       <c r="I3">
-        <v>0.7305114279806179</v>
+        <v>0.6207199949605289</v>
       </c>
       <c r="J3">
-        <v>0.7630546295388221</v>
+        <v>0.66829493802317</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.292848333333334</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N3">
         <v>18.878545</v>
       </c>
       <c r="O3">
-        <v>0.3658564756519352</v>
+        <v>0.5256114009667484</v>
       </c>
       <c r="P3">
-        <v>0.3896519817642028</v>
+        <v>0.5371512231375235</v>
       </c>
       <c r="Q3">
-        <v>261.2765834177567</v>
+        <v>185.1353462527333</v>
       </c>
       <c r="R3">
-        <v>2351.48925075981</v>
+        <v>1666.2181162746</v>
       </c>
       <c r="S3">
-        <v>0.2672623364644513</v>
+        <v>0.3262575061592766</v>
       </c>
       <c r="T3">
-        <v>0.2973257485941517</v>
+        <v>0.3589754433757612</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>41.519606</v>
+        <v>29.41996</v>
       </c>
       <c r="H4">
-        <v>124.558818</v>
+        <v>88.25988000000001</v>
       </c>
       <c r="I4">
-        <v>0.7305114279806179</v>
+        <v>0.6207199949605289</v>
       </c>
       <c r="J4">
-        <v>0.7630546295388221</v>
+        <v>0.66829493802317</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,22 +688,22 @@
         <v>0.063684</v>
       </c>
       <c r="O4">
-        <v>0.001234163109255392</v>
+        <v>0.001773072896198643</v>
       </c>
       <c r="P4">
-        <v>0.001314433755709007</v>
+        <v>0.001812000792131494</v>
       </c>
       <c r="Q4">
-        <v>0.8813781961679999</v>
+        <v>0.6245269108800001</v>
       </c>
       <c r="R4">
-        <v>7.932403765511999</v>
+        <v>5.620742197920001</v>
       </c>
       <c r="S4">
-        <v>0.0009015702553031557</v>
+        <v>0.001100581799193072</v>
       </c>
       <c r="T4">
-        <v>0.001002984762515859</v>
+        <v>0.001210950957075451</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>41.519606</v>
+        <v>29.41996</v>
       </c>
       <c r="H5">
-        <v>124.558818</v>
+        <v>88.25988000000001</v>
       </c>
       <c r="I5">
-        <v>0.7305114279806179</v>
+        <v>0.6207199949605289</v>
       </c>
       <c r="J5">
-        <v>0.7630546295388221</v>
+        <v>0.66829493802317</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,43 +744,43 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.151199</v>
+        <v>0.771625</v>
       </c>
       <c r="N5">
-        <v>6.302398</v>
+        <v>1.54325</v>
       </c>
       <c r="O5">
-        <v>0.183205839255817</v>
+        <v>0.06445013065429045</v>
       </c>
       <c r="P5">
-        <v>0.1300810984409417</v>
+        <v>0.04391009079921059</v>
       </c>
       <c r="Q5">
-        <v>130.836540907594</v>
+        <v>22.701176635</v>
       </c>
       <c r="R5">
-        <v>785.0192454455639</v>
+        <v>136.20705981</v>
       </c>
       <c r="S5">
-        <v>0.1338339592491544</v>
+        <v>0.04000548477493659</v>
       </c>
       <c r="T5">
-        <v>0.09925898438085581</v>
+        <v>0.02934489140925021</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>41.519606</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H6">
-        <v>124.558818</v>
+        <v>21.551639</v>
       </c>
       <c r="I6">
-        <v>0.7305114279806179</v>
+        <v>0.1515698101047853</v>
       </c>
       <c r="J6">
-        <v>0.7630546295388221</v>
+        <v>0.1631868437822795</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.007773333333333333</v>
+        <v>4.886733666666667</v>
       </c>
       <c r="N6">
-        <v>0.02332</v>
+        <v>14.660201</v>
       </c>
       <c r="O6">
-        <v>0.0004519295852621654</v>
+        <v>0.4081653954827624</v>
       </c>
       <c r="P6">
-        <v>0.0004813233336965963</v>
+        <v>0.4171266852711343</v>
       </c>
       <c r="Q6">
-        <v>0.3227457373066667</v>
+        <v>35.10570662438212</v>
       </c>
       <c r="R6">
-        <v>2.90471163576</v>
+        <v>315.951359619439</v>
       </c>
       <c r="S6">
-        <v>0.0003301397266765529</v>
+        <v>0.06186555148466688</v>
       </c>
       <c r="T6">
-        <v>0.0003672759980822471</v>
+        <v>0.06806958722676065</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>21.551639</v>
       </c>
       <c r="I7">
-        <v>0.1263958572665066</v>
+        <v>0.1515698101047853</v>
       </c>
       <c r="J7">
-        <v>0.1320266053993819</v>
+        <v>0.1631868437822795</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.727270999999999</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N7">
-        <v>23.181813</v>
+        <v>18.878545</v>
       </c>
       <c r="O7">
-        <v>0.4492515923977304</v>
+        <v>0.5256114009667484</v>
       </c>
       <c r="P7">
-        <v>0.4784711627054499</v>
+        <v>0.5371512231375235</v>
       </c>
       <c r="Q7">
-        <v>55.51178501572299</v>
+        <v>45.20706518725055</v>
       </c>
       <c r="R7">
-        <v>499.606065141507</v>
+        <v>406.863586685255</v>
       </c>
       <c r="S7">
-        <v>0.05678354014945435</v>
+        <v>0.0796668202334402</v>
       </c>
       <c r="T7">
-        <v>0.06317092339349591</v>
+        <v>0.0876560127376034</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>21.551639</v>
       </c>
       <c r="I8">
-        <v>0.1263958572665066</v>
+        <v>0.1515698101047853</v>
       </c>
       <c r="J8">
-        <v>0.1320266053993819</v>
+        <v>0.1631868437822795</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>6.292848333333334</v>
+        <v>0.021228</v>
       </c>
       <c r="N8">
-        <v>18.878545</v>
+        <v>0.063684</v>
       </c>
       <c r="O8">
-        <v>0.3658564756519352</v>
+        <v>0.001773072896198643</v>
       </c>
       <c r="P8">
-        <v>0.3896519817642028</v>
+        <v>0.001812000792131494</v>
       </c>
       <c r="Q8">
-        <v>45.20706518725056</v>
+        <v>0.152499397564</v>
       </c>
       <c r="R8">
-        <v>406.8635866852551</v>
+        <v>1.372494578076</v>
       </c>
       <c r="S8">
-        <v>0.04624274287652916</v>
+        <v>0.00026874432217877</v>
       </c>
       <c r="T8">
-        <v>0.05144442843946957</v>
+        <v>0.0002956946901989288</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>21.551639</v>
       </c>
       <c r="I9">
-        <v>0.1263958572665066</v>
+        <v>0.1515698101047853</v>
       </c>
       <c r="J9">
-        <v>0.1320266053993819</v>
+        <v>0.1631868437822795</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.021228</v>
+        <v>0.771625</v>
       </c>
       <c r="N9">
-        <v>0.063684</v>
+        <v>1.54325</v>
       </c>
       <c r="O9">
-        <v>0.001234163109255392</v>
+        <v>0.06445013065429045</v>
       </c>
       <c r="P9">
-        <v>0.001314433755709007</v>
+        <v>0.04391009079921059</v>
       </c>
       <c r="Q9">
-        <v>0.152499397564</v>
+        <v>5.543261147791667</v>
       </c>
       <c r="R9">
-        <v>1.372494578076</v>
+        <v>33.25956688675</v>
       </c>
       <c r="S9">
-        <v>0.0001559931042010325</v>
+        <v>0.009768694064499404</v>
       </c>
       <c r="T9">
-        <v>0.0001735402267886206</v>
+        <v>0.007165549127716487</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.183879666666667</v>
+        <v>0.3873096666666667</v>
       </c>
       <c r="H10">
-        <v>21.551639</v>
+        <v>1.161929</v>
       </c>
       <c r="I10">
-        <v>0.1263958572665066</v>
+        <v>0.008171692087327698</v>
       </c>
       <c r="J10">
-        <v>0.1320266053993819</v>
+        <v>0.008798009571759262</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.151199</v>
+        <v>4.886733666666667</v>
       </c>
       <c r="N10">
-        <v>6.302398</v>
+        <v>14.660201</v>
       </c>
       <c r="O10">
-        <v>0.183205839255817</v>
+        <v>0.4081653954827624</v>
       </c>
       <c r="P10">
-        <v>0.1300810984409417</v>
+        <v>0.4171266852711343</v>
       </c>
       <c r="Q10">
-        <v>22.63783442172033</v>
+        <v>1.892679187525445</v>
       </c>
       <c r="R10">
-        <v>135.827006530322</v>
+        <v>17.034112687729</v>
       </c>
       <c r="S10">
-        <v>0.0231564591089688</v>
+        <v>0.00333540193258747</v>
       </c>
       <c r="T10">
-        <v>0.01717416585378037</v>
+        <v>0.003669884569651653</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.183879666666667</v>
+        <v>0.3873096666666667</v>
       </c>
       <c r="H11">
-        <v>21.551639</v>
+        <v>1.161929</v>
       </c>
       <c r="I11">
-        <v>0.1263958572665066</v>
+        <v>0.008171692087327698</v>
       </c>
       <c r="J11">
-        <v>0.1320266053993819</v>
+        <v>0.008798009571759262</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.007773333333333333</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N11">
-        <v>0.02332</v>
+        <v>18.878545</v>
       </c>
       <c r="O11">
-        <v>0.0004519295852621654</v>
+        <v>0.5256114009667484</v>
       </c>
       <c r="P11">
-        <v>0.0004813233336965963</v>
+        <v>0.5371512231375235</v>
       </c>
       <c r="Q11">
-        <v>0.05584269127555556</v>
+        <v>2.437280990367222</v>
       </c>
       <c r="R11">
-        <v>0.50258422148</v>
+        <v>21.935528913305</v>
       </c>
       <c r="S11">
-        <v>5.71220273533082E-05</v>
+        <v>0.004295134526289204</v>
       </c>
       <c r="T11">
-        <v>6.354748584747555E-05</v>
+        <v>0.004725861602646127</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.229894</v>
+        <v>0.3873096666666667</v>
       </c>
       <c r="H12">
-        <v>0.6896819999999999</v>
+        <v>1.161929</v>
       </c>
       <c r="I12">
-        <v>0.004044840748830231</v>
+        <v>0.008171692087327698</v>
       </c>
       <c r="J12">
-        <v>0.004225032410066655</v>
+        <v>0.008798009571759262</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>7.727270999999999</v>
+        <v>0.021228</v>
       </c>
       <c r="N12">
-        <v>23.181813</v>
+        <v>0.063684</v>
       </c>
       <c r="O12">
-        <v>0.4492515923977304</v>
+        <v>0.001773072896198643</v>
       </c>
       <c r="P12">
-        <v>0.4784711627054499</v>
+        <v>0.001812000792131494</v>
       </c>
       <c r="Q12">
-        <v>1.776453239274</v>
+        <v>0.008221809603999999</v>
       </c>
       <c r="R12">
-        <v>15.988079153466</v>
+        <v>0.07399628643600001</v>
       </c>
       <c r="S12">
-        <v>0.001817151147407209</v>
+        <v>1.448900575612166E-05</v>
       </c>
       <c r="T12">
-        <v>0.002021556169712802</v>
+        <v>1.594200031320825E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.229894</v>
+        <v>0.3873096666666667</v>
       </c>
       <c r="H13">
-        <v>0.6896819999999999</v>
+        <v>1.161929</v>
       </c>
       <c r="I13">
-        <v>0.004044840748830231</v>
+        <v>0.008171692087327698</v>
       </c>
       <c r="J13">
-        <v>0.004225032410066655</v>
+        <v>0.008798009571759262</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.292848333333334</v>
+        <v>0.771625</v>
       </c>
       <c r="N13">
-        <v>18.878545</v>
+        <v>1.54325</v>
       </c>
       <c r="O13">
-        <v>0.3658564756519352</v>
+        <v>0.06445013065429045</v>
       </c>
       <c r="P13">
-        <v>0.3896519817642028</v>
+        <v>0.04391009079921059</v>
       </c>
       <c r="Q13">
-        <v>1.446688074743333</v>
+        <v>0.2988578215416667</v>
       </c>
       <c r="R13">
-        <v>13.02019267269</v>
+        <v>1.79314692925</v>
       </c>
       <c r="S13">
-        <v>0.001479831180940363</v>
+        <v>0.0005266666226949016</v>
       </c>
       <c r="T13">
-        <v>0.001646292251600458</v>
+        <v>0.0003863213991482731</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.229894</v>
+        <v>10.122265</v>
       </c>
       <c r="H14">
-        <v>0.6896819999999999</v>
+        <v>20.24453</v>
       </c>
       <c r="I14">
-        <v>0.004044840748830231</v>
+        <v>0.2135656295858028</v>
       </c>
       <c r="J14">
-        <v>0.004225032410066655</v>
+        <v>0.153289545846405</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.021228</v>
+        <v>4.886733666666667</v>
       </c>
       <c r="N14">
-        <v>0.063684</v>
+        <v>14.660201</v>
       </c>
       <c r="O14">
-        <v>0.001234163109255392</v>
+        <v>0.4081653954827624</v>
       </c>
       <c r="P14">
-        <v>0.001314433755709007</v>
+        <v>0.4171266852711343</v>
       </c>
       <c r="Q14">
-        <v>0.004880189831999999</v>
+        <v>49.46481315842166</v>
       </c>
       <c r="R14">
-        <v>0.043921708488</v>
+        <v>296.78887895053</v>
       </c>
       <c r="S14">
-        <v>4.991993235019225E-06</v>
+        <v>0.08717009966141435</v>
       </c>
       <c r="T14">
-        <v>5.55352521875619E-06</v>
+        <v>0.06394116014562849</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,87 +1337,87 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.229894</v>
+        <v>10.122265</v>
       </c>
       <c r="H15">
-        <v>0.6896819999999999</v>
+        <v>20.24453</v>
       </c>
       <c r="I15">
-        <v>0.004044840748830231</v>
+        <v>0.2135656295858028</v>
       </c>
       <c r="J15">
-        <v>0.004225032410066655</v>
+        <v>0.153289545846405</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.151199</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N15">
-        <v>6.302398</v>
+        <v>18.878545</v>
       </c>
       <c r="O15">
-        <v>0.183205839255817</v>
+        <v>0.5256114009667484</v>
       </c>
       <c r="P15">
-        <v>0.1300810984409417</v>
+        <v>0.5371512231375235</v>
       </c>
       <c r="Q15">
-        <v>0.7244417429059999</v>
+        <v>63.69787843480832</v>
       </c>
       <c r="R15">
-        <v>4.346650457436</v>
+        <v>382.1872706088499</v>
       </c>
       <c r="S15">
-        <v>0.0007410384440455695</v>
+        <v>0.1122525297649395</v>
       </c>
       <c r="T15">
-        <v>0.0005495968568500497</v>
+        <v>0.08233966704559194</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.229894</v>
+        <v>10.122265</v>
       </c>
       <c r="H16">
-        <v>0.6896819999999999</v>
+        <v>20.24453</v>
       </c>
       <c r="I16">
-        <v>0.004044840748830231</v>
+        <v>0.2135656295858028</v>
       </c>
       <c r="J16">
-        <v>0.004225032410066655</v>
+        <v>0.153289545846405</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.007773333333333333</v>
+        <v>0.021228</v>
       </c>
       <c r="N16">
-        <v>0.02332</v>
+        <v>0.063684</v>
       </c>
       <c r="O16">
-        <v>0.0004519295852621654</v>
+        <v>0.001773072896198643</v>
       </c>
       <c r="P16">
-        <v>0.0004813233336965963</v>
+        <v>0.001812000792131494</v>
       </c>
       <c r="Q16">
-        <v>0.001787042693333333</v>
+        <v>0.21487544142</v>
       </c>
       <c r="R16">
-        <v>0.01608338424</v>
+        <v>1.28925264852</v>
       </c>
       <c r="S16">
-        <v>1.827983202070353E-06</v>
+        <v>0.000378667429378186</v>
       </c>
       <c r="T16">
-        <v>2.033606684589447E-06</v>
+        <v>0.0002777607784991628</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.2719705</v>
+        <v>10.122265</v>
       </c>
       <c r="H17">
-        <v>14.543941</v>
+        <v>20.24453</v>
       </c>
       <c r="I17">
-        <v>0.1279457602316344</v>
+        <v>0.2135656295858028</v>
       </c>
       <c r="J17">
-        <v>0.08909703616318426</v>
+        <v>0.153289545846405</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.727270999999999</v>
+        <v>0.771625</v>
       </c>
       <c r="N17">
-        <v>23.181813</v>
+        <v>1.54325</v>
       </c>
       <c r="O17">
-        <v>0.4492515923977304</v>
+        <v>0.06445013065429045</v>
       </c>
       <c r="P17">
-        <v>0.4784711627054499</v>
+        <v>0.04391009079921059</v>
       </c>
       <c r="Q17">
-        <v>56.19248675750549</v>
+        <v>7.810592730624999</v>
       </c>
       <c r="R17">
-        <v>337.154920545033</v>
+        <v>31.2423709225</v>
       </c>
       <c r="S17">
-        <v>0.05747983652459995</v>
+        <v>0.01376433273007079</v>
       </c>
       <c r="T17">
-        <v>0.04263036248660829</v>
+        <v>0.006730957876685399</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,25 +1523,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.2719705</v>
+        <v>0.2830933333333334</v>
       </c>
       <c r="H18">
-        <v>14.543941</v>
+        <v>0.84928</v>
       </c>
       <c r="I18">
-        <v>0.1279457602316344</v>
+        <v>0.005972873261555284</v>
       </c>
       <c r="J18">
-        <v>0.08909703616318426</v>
+        <v>0.006430662776386256</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.292848333333334</v>
+        <v>4.886733666666667</v>
       </c>
       <c r="N18">
-        <v>18.878545</v>
+        <v>14.660201</v>
       </c>
       <c r="O18">
-        <v>0.3658564756519352</v>
+        <v>0.4081653954827624</v>
       </c>
       <c r="P18">
-        <v>0.3896519817642028</v>
+        <v>0.4171266852711343</v>
       </c>
       <c r="Q18">
-        <v>45.76140744097417</v>
+        <v>1.383401722808889</v>
       </c>
       <c r="R18">
-        <v>274.568444645845</v>
+        <v>12.45061550528</v>
       </c>
       <c r="S18">
-        <v>0.04680978491295328</v>
+        <v>0.002437920176971129</v>
       </c>
       <c r="T18">
-        <v>0.0347168367103016</v>
+        <v>0.002682401048010468</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.2719705</v>
+        <v>0.2830933333333334</v>
       </c>
       <c r="H19">
-        <v>14.543941</v>
+        <v>0.84928</v>
       </c>
       <c r="I19">
-        <v>0.1279457602316344</v>
+        <v>0.005972873261555284</v>
       </c>
       <c r="J19">
-        <v>0.08909703616318426</v>
+        <v>0.006430662776386256</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.021228</v>
+        <v>6.292848333333333</v>
       </c>
       <c r="N19">
-        <v>0.063684</v>
+        <v>18.878545</v>
       </c>
       <c r="O19">
-        <v>0.001234163109255392</v>
+        <v>0.5256114009667484</v>
       </c>
       <c r="P19">
-        <v>0.001314433755709007</v>
+        <v>0.5371512231375235</v>
       </c>
       <c r="Q19">
-        <v>0.154369389774</v>
+        <v>1.781463410844444</v>
       </c>
       <c r="R19">
-        <v>0.9262163386440001</v>
+        <v>16.0331706976</v>
       </c>
       <c r="S19">
-        <v>0.0001579059372635188</v>
+        <v>0.003139410282802904</v>
       </c>
       <c r="T19">
-        <v>0.0001171121518665155</v>
+        <v>0.00345423837592082</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,427 +1647,117 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.2719705</v>
+        <v>0.2830933333333334</v>
       </c>
       <c r="H20">
-        <v>14.543941</v>
+        <v>0.84928</v>
       </c>
       <c r="I20">
-        <v>0.1279457602316344</v>
+        <v>0.005972873261555284</v>
       </c>
       <c r="J20">
-        <v>0.08909703616318426</v>
+        <v>0.006430662776386256</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>3.151199</v>
+        <v>0.021228</v>
       </c>
       <c r="N20">
-        <v>6.302398</v>
+        <v>0.063684</v>
       </c>
       <c r="O20">
-        <v>0.183205839255817</v>
+        <v>0.001773072896198643</v>
       </c>
       <c r="P20">
-        <v>0.1300810984409417</v>
+        <v>0.001812000792131494</v>
       </c>
       <c r="Q20">
-        <v>22.9154261676295</v>
+        <v>0.006009505280000001</v>
       </c>
       <c r="R20">
-        <v>91.66170467051801</v>
+        <v>0.05408554752000001</v>
       </c>
       <c r="S20">
-        <v>0.0234404103824601</v>
+        <v>1.059033969249326E-05</v>
       </c>
       <c r="T20">
-        <v>0.01158984033193932</v>
+        <v>1.165236604474241E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.2830933333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.84928</v>
+      </c>
+      <c r="I21">
+        <v>0.005972873261555284</v>
+      </c>
+      <c r="J21">
+        <v>0.006430662776386256</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>7.2719705</v>
-      </c>
-      <c r="H21">
-        <v>14.543941</v>
-      </c>
-      <c r="I21">
-        <v>0.1279457602316344</v>
-      </c>
-      <c r="J21">
-        <v>0.08909703616318426</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.007773333333333333</v>
+        <v>0.771625</v>
       </c>
       <c r="N21">
-        <v>0.02332</v>
+        <v>1.54325</v>
       </c>
       <c r="O21">
-        <v>0.0004519295852621654</v>
+        <v>0.06445013065429045</v>
       </c>
       <c r="P21">
-        <v>0.0004813233336965963</v>
+        <v>0.04391009079921059</v>
       </c>
       <c r="Q21">
-        <v>0.05652745068666667</v>
+        <v>0.2184418933333334</v>
       </c>
       <c r="R21">
-        <v>0.33916470412</v>
+        <v>1.31065136</v>
       </c>
       <c r="S21">
-        <v>5.782247435753499E-05</v>
+        <v>0.000384952462088756</v>
       </c>
       <c r="T21">
-        <v>4.288448246855004E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.6310036666666666</v>
-      </c>
-      <c r="H22">
-        <v>1.893011</v>
-      </c>
-      <c r="I22">
-        <v>0.01110211377241086</v>
-      </c>
-      <c r="J22">
-        <v>0.011596696488545</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>7.727270999999999</v>
-      </c>
-      <c r="N22">
-        <v>23.181813</v>
-      </c>
-      <c r="O22">
-        <v>0.4492515923977304</v>
-      </c>
-      <c r="P22">
-        <v>0.4784711627054499</v>
-      </c>
-      <c r="Q22">
-        <v>4.875936334326999</v>
-      </c>
-      <c r="R22">
-        <v>43.88342700894299</v>
-      </c>
-      <c r="S22">
-        <v>0.004987642291236352</v>
-      </c>
-      <c r="T22">
-        <v>0.005548684852416333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.6310036666666666</v>
-      </c>
-      <c r="H23">
-        <v>1.893011</v>
-      </c>
-      <c r="I23">
-        <v>0.01110211377241086</v>
-      </c>
-      <c r="J23">
-        <v>0.011596696488545</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>6.292848333333334</v>
-      </c>
-      <c r="N23">
-        <v>18.878545</v>
-      </c>
-      <c r="O23">
-        <v>0.3658564756519352</v>
-      </c>
-      <c r="P23">
-        <v>0.3896519817642028</v>
-      </c>
-      <c r="Q23">
-        <v>3.970810372110556</v>
-      </c>
-      <c r="R23">
-        <v>35.737293348995</v>
-      </c>
-      <c r="S23">
-        <v>0.004061780217061047</v>
-      </c>
-      <c r="T23">
-        <v>0.00451867576867953</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.6310036666666666</v>
-      </c>
-      <c r="H24">
-        <v>1.893011</v>
-      </c>
-      <c r="I24">
-        <v>0.01110211377241086</v>
-      </c>
-      <c r="J24">
-        <v>0.011596696488545</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.021228</v>
-      </c>
-      <c r="N24">
-        <v>0.063684</v>
-      </c>
-      <c r="O24">
-        <v>0.001234163109255392</v>
-      </c>
-      <c r="P24">
-        <v>0.001314433755709007</v>
-      </c>
-      <c r="Q24">
-        <v>0.013394945836</v>
-      </c>
-      <c r="R24">
-        <v>0.120554512524</v>
-      </c>
-      <c r="S24">
-        <v>1.370181925266569E-05</v>
-      </c>
-      <c r="T24">
-        <v>1.524308931925565E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.6310036666666666</v>
-      </c>
-      <c r="H25">
-        <v>1.893011</v>
-      </c>
-      <c r="I25">
-        <v>0.01110211377241086</v>
-      </c>
-      <c r="J25">
-        <v>0.011596696488545</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>3.151199</v>
-      </c>
-      <c r="N25">
-        <v>6.302398</v>
-      </c>
-      <c r="O25">
-        <v>0.183205839255817</v>
-      </c>
-      <c r="P25">
-        <v>0.1300810984409417</v>
-      </c>
-      <c r="Q25">
-        <v>1.988418123396333</v>
-      </c>
-      <c r="R25">
-        <v>11.930508740378</v>
-      </c>
-      <c r="S25">
-        <v>0.002033972071188095</v>
-      </c>
-      <c r="T25">
-        <v>0.001508511017516145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.6310036666666666</v>
-      </c>
-      <c r="H26">
-        <v>1.893011</v>
-      </c>
-      <c r="I26">
-        <v>0.01110211377241086</v>
-      </c>
-      <c r="J26">
-        <v>0.011596696488545</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.007773333333333333</v>
-      </c>
-      <c r="N26">
-        <v>0.02332</v>
-      </c>
-      <c r="O26">
-        <v>0.0004519295852621654</v>
-      </c>
-      <c r="P26">
-        <v>0.0004813233336965963</v>
-      </c>
-      <c r="Q26">
-        <v>0.004905001835555555</v>
-      </c>
-      <c r="R26">
-        <v>0.04414501652</v>
-      </c>
-      <c r="S26">
-        <v>5.017373672699014E-06</v>
-      </c>
-      <c r="T26">
-        <v>5.581760613734089E-06</v>
+        <v>0.0002823709864102242</v>
       </c>
     </row>
   </sheetData>
